--- a/pred_ohlcv/54_21/2020-01-14 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>706756.2073000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>699155.5639000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>703745.3269000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>639595.8441000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,7 +938,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>937914.8301000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>955176.6690000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>881243.1332000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-184963.8687999999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-118832.8064999999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>706756.2073000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>699155.5639000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>703745.3269000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>639595.8441000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>839918.5601361686</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>937914.8301000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>955176.6690000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>881135.1332000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>881133.1332000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-184963.8687999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
